--- a/main/resources/data/COVID-19-BE-v2.xlsx
+++ b/main/resources/data/COVID-19-BE-v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/nCov2019/Growth Rate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DCF116E-12C5-2D48-B670-D69A9A7FCEB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FDBB97-62EF-814B-A4DB-CAA988B61056}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9680" yWindow="1100" windowWidth="19480" windowHeight="14580" xr2:uid="{A5558AF9-9646-AB4F-B38D-391622C8AEE9}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,9 +94,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,22 +154,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -162,23 +166,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B772EA-25CE-8143-8366-3BB5B0A9FB44}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -560,14 +563,14 @@
       <c r="N1" s="3"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="19">
+      <c r="A2" s="14">
         <v>43898</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="14">
         <v>43897</v>
       </c>
-      <c r="C2" s="5">
-        <v>31</v>
+      <c r="C2" s="16">
+        <v>30</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="4"/>
@@ -582,14 +585,14 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
+      <c r="A3" s="14">
         <v>43899</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="14">
         <v>43898</v>
       </c>
-      <c r="C3" s="5">
-        <v>39</v>
+      <c r="C3" s="16">
+        <v>64</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="4"/>
@@ -604,14 +607,14 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
+      <c r="A4" s="14">
         <v>43900</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="14">
         <v>43899</v>
       </c>
-      <c r="C4" s="5">
-        <v>28</v>
+      <c r="C4" s="16">
+        <v>79</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
@@ -622,36 +625,36 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="15"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
+      <c r="A5" s="14">
         <v>43901</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="14">
         <v>43900</v>
       </c>
-      <c r="C5" s="5">
-        <v>47</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="C5" s="16">
+        <v>100</v>
+      </c>
+      <c r="D5" s="11">
         <v>7</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>0</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="11">
         <v>0</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="11">
         <f>SUM(E5:F5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="11">
         <v>4</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="11">
         <v>1</v>
       </c>
       <c r="J5" s="5">
@@ -661,85 +664,85 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="11">
         <v>1</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="20">
         <v>1</v>
       </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
+      <c r="A6" s="14">
         <v>43902</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="14">
         <v>43901</v>
       </c>
-      <c r="C6" s="5">
-        <v>85</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="C6" s="16">
+        <v>170</v>
+      </c>
+      <c r="D6" s="11">
         <v>14</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="11">
         <v>7</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="11">
         <v>0</v>
       </c>
-      <c r="G6" s="16">
-        <f t="shared" ref="G6:G20" si="0">SUM(E6:F6)</f>
+      <c r="G6" s="11">
+        <f t="shared" ref="G6:G27" si="0">SUM(E6:F6)</f>
         <v>7</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="11">
         <v>22</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="11">
         <v>1</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J26" si="1">SUM(H6:I6)</f>
+        <f t="shared" ref="J6:J27" si="1">SUM(H6:I6)</f>
         <v>23</v>
       </c>
       <c r="K6" s="1">
         <v>2</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="11">
         <v>1</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="20">
+        <v>2</v>
+      </c>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>43903</v>
+      </c>
+      <c r="B7" s="14">
+        <v>43902</v>
+      </c>
+      <c r="C7" s="16">
+        <v>243</v>
+      </c>
+      <c r="D7" s="12">
+        <v>63</v>
+      </c>
+      <c r="E7" s="12">
+        <v>26</v>
+      </c>
+      <c r="F7" s="12">
         <v>3</v>
       </c>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>43903</v>
-      </c>
-      <c r="B7" s="19">
-        <v>43902</v>
-      </c>
-      <c r="C7" s="5">
-        <v>160</v>
-      </c>
-      <c r="D7" s="17">
-        <v>63</v>
-      </c>
-      <c r="E7" s="17">
-        <v>26</v>
-      </c>
-      <c r="F7" s="17">
-        <v>3</v>
-      </c>
-      <c r="G7" s="16">
+      <c r="G7" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="12">
         <v>17</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="12">
         <v>1</v>
       </c>
       <c r="J7" s="5">
@@ -749,41 +752,41 @@
       <c r="K7" s="2">
         <v>15</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="12">
         <v>17</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="20">
         <v>1</v>
       </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
+      <c r="A8" s="14">
         <v>43904</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="14">
         <v>43903</v>
       </c>
-      <c r="C8" s="5">
-        <v>133</v>
-      </c>
-      <c r="D8" s="17">
+      <c r="C8" s="16">
+        <v>344</v>
+      </c>
+      <c r="D8" s="12">
         <v>112</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <v>70</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="12">
         <v>3</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="11">
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="12">
         <v>11</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="12">
         <v>3</v>
       </c>
       <c r="J8" s="5">
@@ -793,41 +796,41 @@
       <c r="K8" s="2">
         <v>27</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="12">
         <v>24</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="20">
         <v>2</v>
       </c>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
+      <c r="A9" s="14">
         <v>43905</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="14">
         <v>43904</v>
       </c>
-      <c r="C9" s="5">
-        <v>197</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="C9" s="16">
+        <v>175</v>
+      </c>
+      <c r="D9" s="11">
         <v>179</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="11">
         <v>56</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="11">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="11">
         <v>19</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="11">
         <v>3</v>
       </c>
       <c r="J9" s="5">
@@ -837,509 +840,509 @@
       <c r="K9" s="1">
         <v>36</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="11">
         <v>25</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="20">
+        <v>4</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>43906</v>
+      </c>
+      <c r="B10" s="14">
+        <v>43905</v>
+      </c>
+      <c r="C10" s="16">
+        <v>215</v>
+      </c>
+      <c r="D10" s="11">
+        <v>264</v>
+      </c>
+      <c r="E10" s="11">
+        <v>71</v>
+      </c>
+      <c r="F10" s="11">
+        <v>4</v>
+      </c>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="H10" s="11">
+        <v>18</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K10" s="11">
+        <v>54</v>
+      </c>
+      <c r="L10" s="11">
+        <v>32</v>
+      </c>
+      <c r="M10" s="20">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>43907</v>
+      </c>
+      <c r="B11" s="14">
+        <v>43906</v>
+      </c>
+      <c r="C11" s="16">
+        <v>387</v>
+      </c>
+      <c r="D11" s="11">
+        <v>368</v>
+      </c>
+      <c r="E11" s="11">
+        <v>90</v>
+      </c>
+      <c r="F11" s="11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="H11" s="11">
+        <v>14</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="K11" s="11">
+        <v>79</v>
+      </c>
+      <c r="L11" s="11">
+        <v>51</v>
+      </c>
+      <c r="M11" s="20">
+        <v>7</v>
+      </c>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>43908</v>
+      </c>
+      <c r="B12" s="14">
+        <v>43907</v>
+      </c>
+      <c r="C12" s="16">
+        <v>415</v>
+      </c>
+      <c r="D12" s="11">
+        <v>496</v>
+      </c>
+      <c r="E12" s="11">
+        <v>123</v>
+      </c>
+      <c r="F12" s="11">
         <v>5</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>43906</v>
-      </c>
-      <c r="B10" s="19">
-        <v>43905</v>
-      </c>
-      <c r="C10" s="5">
-        <v>172</v>
-      </c>
-      <c r="D10" s="16">
-        <v>264</v>
-      </c>
-      <c r="E10" s="16">
-        <v>71</v>
-      </c>
-      <c r="F10" s="16">
+      <c r="G12" s="11">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="H12" s="11">
+        <v>31</v>
+      </c>
+      <c r="I12" s="11">
         <v>4</v>
       </c>
-      <c r="G10" s="16">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="J12" s="5">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K12" s="11">
+        <v>100</v>
+      </c>
+      <c r="L12" s="11">
+        <v>66</v>
+      </c>
+      <c r="M12" s="20">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>43909</v>
+      </c>
+      <c r="B13" s="14">
+        <v>43908</v>
+      </c>
+      <c r="C13" s="16">
+        <v>533</v>
+      </c>
+      <c r="D13" s="11">
+        <v>648</v>
+      </c>
+      <c r="E13" s="11">
+        <v>183</v>
+      </c>
+      <c r="F13" s="11">
+        <v>5</v>
+      </c>
+      <c r="G13" s="11">
+        <f t="shared" si="0"/>
+        <v>188</v>
+      </c>
+      <c r="H13" s="11">
+        <v>48</v>
+      </c>
+      <c r="I13" s="11">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="K13" s="11">
+        <v>131</v>
+      </c>
+      <c r="L13" s="11">
+        <v>88</v>
+      </c>
+      <c r="M13" s="20">
+        <v>11</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>43910</v>
+      </c>
+      <c r="B14" s="14">
+        <v>43909</v>
+      </c>
+      <c r="C14" s="16">
+        <v>710</v>
+      </c>
+      <c r="D14" s="11">
+        <v>841</v>
+      </c>
+      <c r="E14" s="11">
+        <v>212</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3</v>
+      </c>
+      <c r="G14" s="11">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="H14" s="11">
+        <v>49</v>
+      </c>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="K14" s="11">
+        <v>165</v>
+      </c>
+      <c r="L14" s="11">
+        <v>115</v>
+      </c>
+      <c r="M14" s="20">
+        <v>19</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>43911</v>
+      </c>
+      <c r="B15" s="14">
+        <v>43910</v>
+      </c>
+      <c r="C15" s="16">
+        <v>658</v>
+      </c>
+      <c r="D15" s="11">
+        <v>1096</v>
+      </c>
+      <c r="E15" s="11">
+        <v>295</v>
+      </c>
+      <c r="F15" s="11">
+        <v>7</v>
+      </c>
+      <c r="G15" s="11">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="H15" s="11">
+        <v>55</v>
+      </c>
+      <c r="I15" s="11">
+        <v>4</v>
+      </c>
+      <c r="J15" s="5">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="K15" s="11">
+        <v>239</v>
+      </c>
+      <c r="L15" s="11">
+        <v>168</v>
+      </c>
+      <c r="M15" s="20">
+        <v>16</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>43912</v>
+      </c>
+      <c r="B16" s="14">
+        <v>43911</v>
+      </c>
+      <c r="C16" s="16">
+        <v>468</v>
+      </c>
+      <c r="D16" s="11">
+        <v>1380</v>
+      </c>
+      <c r="E16" s="11">
+        <v>332</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3</v>
+      </c>
+      <c r="G16" s="11">
+        <f t="shared" si="0"/>
+        <v>335</v>
+      </c>
+      <c r="H16" s="11">
+        <v>74</v>
+      </c>
+      <c r="I16" s="11">
+        <v>2</v>
+      </c>
+      <c r="J16" s="5">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="K16" s="11">
+        <v>290</v>
+      </c>
+      <c r="L16" s="11">
+        <v>200</v>
+      </c>
+      <c r="M16" s="20">
         <v>18</v>
       </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <f t="shared" si="1"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>43913</v>
+      </c>
+      <c r="B17" s="14">
+        <v>43912</v>
+      </c>
+      <c r="C17" s="16">
+        <v>488</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1643</v>
+      </c>
+      <c r="E17" s="11">
+        <v>290</v>
+      </c>
+      <c r="F17" s="11">
+        <v>9</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+      <c r="H17" s="11">
+        <v>61</v>
+      </c>
+      <c r="I17" s="11">
+        <v>2</v>
+      </c>
+      <c r="J17" s="5">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="K17" s="11">
+        <v>322</v>
+      </c>
+      <c r="L17" s="11">
+        <v>239</v>
+      </c>
+      <c r="M17" s="20">
+        <v>17</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>43914</v>
+      </c>
+      <c r="B18" s="14">
+        <v>43913</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1302</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1881</v>
+      </c>
+      <c r="E18" s="11">
+        <v>278</v>
+      </c>
+      <c r="F18" s="11">
+        <v>4</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="H18" s="11">
+        <v>82</v>
+      </c>
+      <c r="I18" s="11">
+        <v>3</v>
+      </c>
+      <c r="J18" s="5">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="K18" s="11">
+        <v>385</v>
+      </c>
+      <c r="L18" s="11">
+        <v>286</v>
+      </c>
+      <c r="M18" s="20">
+        <v>54</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>43915</v>
+      </c>
+      <c r="B19" s="14">
+        <v>43914</v>
+      </c>
+      <c r="C19" s="16">
+        <v>1160</v>
+      </c>
+      <c r="D19" s="11">
+        <v>2152</v>
+      </c>
+      <c r="E19" s="11">
+        <v>434</v>
+      </c>
+      <c r="F19" s="11">
         <v>18</v>
       </c>
-      <c r="K10" s="16">
-        <v>54</v>
-      </c>
-      <c r="L10" s="16">
-        <v>32</v>
-      </c>
-      <c r="M10" s="13">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>43907</v>
-      </c>
-      <c r="B11" s="19">
-        <v>43906</v>
-      </c>
-      <c r="C11" s="5">
-        <v>185</v>
-      </c>
-      <c r="D11" s="16">
-        <v>368</v>
-      </c>
-      <c r="E11" s="16">
-        <v>90</v>
-      </c>
-      <c r="F11" s="16">
-        <v>2</v>
-      </c>
-      <c r="G11" s="16">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="H11" s="16">
-        <v>14</v>
-      </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K11" s="16">
-        <v>79</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="G19" s="11">
+        <f t="shared" si="0"/>
+        <v>452</v>
+      </c>
+      <c r="H19" s="11">
+        <v>115</v>
+      </c>
+      <c r="I19" s="11">
+        <v>9</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="K19" s="11">
+        <v>474</v>
+      </c>
+      <c r="L19" s="11">
+        <v>322</v>
+      </c>
+      <c r="M19" s="20">
         <v>51</v>
       </c>
-      <c r="M11" s="13">
-        <v>7</v>
-      </c>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>43908</v>
-      </c>
-      <c r="B12" s="19">
-        <v>43907</v>
-      </c>
-      <c r="C12" s="5">
-        <v>243</v>
-      </c>
-      <c r="D12" s="16">
-        <v>496</v>
-      </c>
-      <c r="E12" s="16">
-        <v>123</v>
-      </c>
-      <c r="F12" s="16">
-        <v>5</v>
-      </c>
-      <c r="G12" s="16">
-        <f t="shared" si="0"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>43916</v>
+      </c>
+      <c r="B20" s="14">
+        <v>43915</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1175</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2675</v>
+      </c>
+      <c r="E20" s="11">
+        <v>540</v>
+      </c>
+      <c r="F20" s="11">
+        <v>11</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>551</v>
+      </c>
+      <c r="H20" s="11">
         <v>128</v>
       </c>
-      <c r="H12" s="16">
-        <v>31</v>
-      </c>
-      <c r="I12" s="16">
-        <v>4</v>
-      </c>
-      <c r="J12" s="5">
-        <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="K12" s="16">
-        <v>100</v>
-      </c>
-      <c r="L12" s="16">
-        <v>66</v>
-      </c>
-      <c r="M12" s="13">
-        <v>7</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>43909</v>
-      </c>
-      <c r="B13" s="19">
-        <v>43908</v>
-      </c>
-      <c r="C13" s="5">
-        <v>309</v>
-      </c>
-      <c r="D13" s="16">
-        <v>648</v>
-      </c>
-      <c r="E13" s="16">
-        <v>183</v>
-      </c>
-      <c r="F13" s="16">
-        <v>5</v>
-      </c>
-      <c r="G13" s="16">
-        <f t="shared" si="0"/>
-        <v>188</v>
-      </c>
-      <c r="H13" s="16">
-        <v>48</v>
-      </c>
-      <c r="I13" s="16">
-        <v>4</v>
-      </c>
-      <c r="J13" s="5">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="K13" s="16">
-        <v>131</v>
-      </c>
-      <c r="L13" s="16">
-        <v>88</v>
-      </c>
-      <c r="M13" s="13">
-        <v>13</v>
-      </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>43910</v>
-      </c>
-      <c r="B14" s="19">
-        <v>43909</v>
-      </c>
-      <c r="C14" s="5">
-        <v>462</v>
-      </c>
-      <c r="D14" s="16">
-        <v>841</v>
-      </c>
-      <c r="E14" s="16">
-        <v>212</v>
-      </c>
-      <c r="F14" s="16">
-        <v>3</v>
-      </c>
-      <c r="G14" s="16">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="H14" s="16">
-        <v>49</v>
-      </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="K14" s="16">
-        <v>165</v>
-      </c>
-      <c r="L14" s="16">
-        <v>115</v>
-      </c>
-      <c r="M14" s="13">
-        <v>22</v>
-      </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>43911</v>
-      </c>
-      <c r="B15" s="19">
-        <v>43910</v>
-      </c>
-      <c r="C15" s="5">
-        <v>558</v>
-      </c>
-      <c r="D15" s="16">
-        <v>1096</v>
-      </c>
-      <c r="E15" s="16">
-        <v>295</v>
-      </c>
-      <c r="F15" s="16">
-        <v>7</v>
-      </c>
-      <c r="G15" s="16">
-        <f t="shared" si="0"/>
-        <v>302</v>
-      </c>
-      <c r="H15" s="16">
-        <v>55</v>
-      </c>
-      <c r="I15" s="16">
-        <v>4</v>
-      </c>
-      <c r="J15" s="5">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="K15" s="16">
-        <v>239</v>
-      </c>
-      <c r="L15" s="16">
-        <v>168</v>
-      </c>
-      <c r="M15" s="13">
-        <v>22</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>43912</v>
-      </c>
-      <c r="B16" s="19">
-        <v>43911</v>
-      </c>
-      <c r="C16" s="5">
-        <v>586</v>
-      </c>
-      <c r="D16" s="16">
-        <v>1380</v>
-      </c>
-      <c r="E16" s="16">
-        <v>332</v>
-      </c>
-      <c r="F16" s="16">
-        <v>3</v>
-      </c>
-      <c r="G16" s="16">
-        <f t="shared" si="0"/>
-        <v>335</v>
-      </c>
-      <c r="H16" s="16">
-        <v>74</v>
-      </c>
-      <c r="I16" s="16">
-        <v>2</v>
-      </c>
-      <c r="J16" s="5">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="K16" s="16">
-        <v>290</v>
-      </c>
-      <c r="L16" s="16">
-        <v>200</v>
-      </c>
-      <c r="M16" s="13">
-        <v>24</v>
-      </c>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
-        <v>43913</v>
-      </c>
-      <c r="B17" s="19">
-        <v>43912</v>
-      </c>
-      <c r="C17" s="5">
-        <v>342</v>
-      </c>
-      <c r="D17" s="16">
-        <v>1643</v>
-      </c>
-      <c r="E17" s="16">
-        <v>290</v>
-      </c>
-      <c r="F17" s="16">
-        <v>9</v>
-      </c>
-      <c r="G17" s="16">
-        <f t="shared" si="0"/>
-        <v>299</v>
-      </c>
-      <c r="H17" s="16">
-        <v>61</v>
-      </c>
-      <c r="I17" s="16">
-        <v>2</v>
-      </c>
-      <c r="J17" s="5">
-        <f t="shared" si="1"/>
-        <v>63</v>
-      </c>
-      <c r="K17" s="16">
-        <v>322</v>
-      </c>
-      <c r="L17" s="16">
-        <v>239</v>
-      </c>
-      <c r="M17" s="13">
-        <v>25</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>43914</v>
-      </c>
-      <c r="B18" s="19">
-        <v>43913</v>
-      </c>
-      <c r="C18" s="5">
-        <v>526</v>
-      </c>
-      <c r="D18" s="16">
-        <v>1881</v>
-      </c>
-      <c r="E18" s="16">
-        <v>278</v>
-      </c>
-      <c r="F18" s="16">
-        <v>4</v>
-      </c>
-      <c r="G18" s="16">
-        <f t="shared" si="0"/>
-        <v>282</v>
-      </c>
-      <c r="H18" s="16">
-        <v>82</v>
-      </c>
-      <c r="I18" s="16">
-        <v>3</v>
-      </c>
-      <c r="J18" s="5">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="K18" s="16">
-        <v>385</v>
-      </c>
-      <c r="L18" s="16">
-        <v>286</v>
-      </c>
-      <c r="M18" s="13">
-        <v>63</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>43915</v>
-      </c>
-      <c r="B19" s="19">
-        <v>43914</v>
-      </c>
-      <c r="C19" s="5">
-        <v>668</v>
-      </c>
-      <c r="D19" s="16">
-        <v>2152</v>
-      </c>
-      <c r="E19" s="16">
-        <v>434</v>
-      </c>
-      <c r="F19" s="16">
-        <v>18</v>
-      </c>
-      <c r="G19" s="16">
-        <f t="shared" si="0"/>
-        <v>452</v>
-      </c>
-      <c r="H19" s="16">
-        <v>115</v>
-      </c>
-      <c r="I19" s="16">
-        <v>9</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="1"/>
-        <v>124</v>
-      </c>
-      <c r="K19" s="16">
-        <v>474</v>
-      </c>
-      <c r="L19" s="16">
-        <v>322</v>
-      </c>
-      <c r="M19" s="13">
-        <v>58</v>
-      </c>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
+      <c r="I20" s="11">
+        <v>11</v>
+      </c>
+      <c r="J20" s="5">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
+      <c r="K20" s="13">
+        <v>612</v>
+      </c>
+      <c r="L20" s="13">
+        <v>422</v>
+      </c>
+      <c r="M20" s="20">
+        <v>64</v>
+      </c>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>43917</v>
+      </c>
+      <c r="B21" s="14">
         <v>43916</v>
       </c>
-      <c r="B20" s="19">
-        <v>43915</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1298</v>
-      </c>
-      <c r="D20" s="18">
-        <v>2675</v>
-      </c>
-      <c r="E20" s="16">
-        <v>540</v>
-      </c>
-      <c r="F20" s="16">
-        <v>11</v>
-      </c>
-      <c r="G20" s="18">
-        <f t="shared" si="0"/>
-        <v>551</v>
-      </c>
-      <c r="H20" s="16">
-        <v>128</v>
-      </c>
-      <c r="I20" s="16">
-        <v>11</v>
-      </c>
-      <c r="J20" s="5">
-        <f t="shared" si="1"/>
-        <v>139</v>
-      </c>
-      <c r="K20" s="18">
-        <v>612</v>
-      </c>
-      <c r="L20" s="18">
-        <v>422</v>
-      </c>
-      <c r="M20" s="13">
-        <v>75</v>
-      </c>
-      <c r="N20" s="8"/>
-    </row>
-    <row r="21" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
-        <v>43917</v>
-      </c>
-      <c r="B21" s="19">
-        <v>43916</v>
-      </c>
-      <c r="C21" s="11">
-        <v>1049</v>
-      </c>
-      <c r="D21" s="18">
+      <c r="C21" s="18">
+        <v>1327</v>
+      </c>
+      <c r="D21" s="13">
         <v>3042</v>
       </c>
       <c r="E21" s="5">
@@ -1348,8 +1351,9 @@
       <c r="F21" s="5">
         <v>11</v>
       </c>
-      <c r="G21" s="21">
-        <v>490</v>
+      <c r="G21" s="11">
+        <f t="shared" si="0"/>
+        <v>501</v>
       </c>
       <c r="H21" s="5">
         <v>183</v>
@@ -1361,28 +1365,28 @@
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
-      <c r="K21" s="20">
+      <c r="K21" s="15">
         <v>690</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="15">
         <v>498</v>
       </c>
-      <c r="M21" s="13">
-        <v>73</v>
-      </c>
-      <c r="N21" s="8"/>
-    </row>
-    <row r="22" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
+      <c r="M21" s="20">
+        <v>63</v>
+      </c>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
         <v>43918</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="14">
         <v>43917</v>
       </c>
-      <c r="C22" s="12">
-        <v>1850</v>
-      </c>
-      <c r="D22" s="16">
+      <c r="C22" s="19">
+        <v>1425</v>
+      </c>
+      <c r="D22" s="11">
         <v>3717</v>
       </c>
       <c r="E22" s="5">
@@ -1391,8 +1395,9 @@
       <c r="F22" s="5">
         <v>14</v>
       </c>
-      <c r="G22" s="5">
-        <v>575</v>
+      <c r="G22" s="11">
+        <f t="shared" si="0"/>
+        <v>589</v>
       </c>
       <c r="H22" s="5">
         <v>205</v>
@@ -1404,182 +1409,379 @@
         <f t="shared" si="1"/>
         <v>220</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="11">
         <v>789</v>
       </c>
       <c r="L22" s="5">
         <v>579</v>
       </c>
-      <c r="M22" s="13">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
+      <c r="M22" s="20">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
         <v>43919</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="14">
         <v>43918</v>
       </c>
-      <c r="C23" s="10">
-        <v>1702</v>
-      </c>
-      <c r="D23" s="6">
+      <c r="C23" s="16">
+        <v>788</v>
+      </c>
+      <c r="D23" s="5">
         <v>4138</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>629</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <v>15</v>
       </c>
-      <c r="G23" s="6">
-        <v>629</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="G23" s="11">
+        <f t="shared" si="0"/>
+        <v>644</v>
+      </c>
+      <c r="H23" s="5">
         <v>296</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="5">
         <v>16</v>
       </c>
       <c r="J23" s="5">
         <f t="shared" si="1"/>
         <v>312</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <v>867</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="5">
         <v>656</v>
       </c>
-      <c r="M23" s="13">
-        <v>98</v>
+      <c r="M23" s="20">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
+      <c r="A24" s="14">
         <v>43920</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="14">
         <v>43919</v>
       </c>
-      <c r="C24" s="6">
-        <v>1063</v>
-      </c>
-      <c r="D24" s="6">
+      <c r="C24" s="16">
+        <v>628</v>
+      </c>
+      <c r="D24" s="5">
         <v>4569</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>545</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <v>9</v>
       </c>
-      <c r="G24" s="6">
-        <v>536</v>
-      </c>
-      <c r="H24" s="6">
+      <c r="G24" s="11">
+        <f t="shared" si="0"/>
+        <v>554</v>
+      </c>
+      <c r="H24" s="5">
         <v>169</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>14</v>
       </c>
       <c r="J24" s="5">
         <f t="shared" si="1"/>
         <v>183</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>942</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <v>709</v>
       </c>
-      <c r="M24" s="13">
-        <v>89</v>
+      <c r="M24" s="20">
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
+      <c r="A25" s="14">
         <v>43921</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="14">
         <v>43920</v>
       </c>
-      <c r="C25" s="6">
-        <v>867</v>
-      </c>
-      <c r="D25" s="6">
+      <c r="C25" s="16">
+        <v>715</v>
+      </c>
+      <c r="D25" s="5">
         <v>4920</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>485</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <v>11</v>
       </c>
-      <c r="G25" s="6">
-        <v>485</v>
-      </c>
-      <c r="H25" s="6">
+      <c r="G25" s="11">
+        <f t="shared" si="0"/>
+        <v>496</v>
+      </c>
+      <c r="H25" s="5">
         <v>168</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>14</v>
       </c>
       <c r="J25" s="5">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <v>1021</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <v>786</v>
       </c>
-      <c r="M25" s="13">
-        <v>32</v>
+      <c r="M25" s="20">
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
+      <c r="A26" s="14">
         <v>43922</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="14">
         <v>43921</v>
       </c>
-      <c r="D26" s="6">
-        <v>4920</v>
-      </c>
-      <c r="E26" s="6">
-        <v>537</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="C26" s="16"/>
+      <c r="D26" s="5">
+        <v>4995</v>
+      </c>
+      <c r="E26" s="5">
+        <v>560</v>
+      </c>
+      <c r="F26" s="5">
         <v>24</v>
       </c>
-      <c r="G26" s="16">
-        <f t="shared" ref="G26" si="2">SUM(E26:F26)</f>
-        <v>561</v>
-      </c>
-      <c r="H26" s="6">
-        <v>435</v>
-      </c>
-      <c r="I26" s="6">
+      <c r="G26" s="11">
+        <f t="shared" si="0"/>
+        <v>584</v>
+      </c>
+      <c r="H26" s="5">
+        <v>436</v>
+      </c>
+      <c r="I26" s="5">
         <v>29</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="1"/>
-        <v>464</v>
-      </c>
-      <c r="K26" s="6">
-        <v>1075</v>
-      </c>
-      <c r="L26" s="6">
-        <v>828</v>
-      </c>
-      <c r="M26" s="14"/>
+        <v>465</v>
+      </c>
+      <c r="K26" s="5">
+        <v>1088</v>
+      </c>
+      <c r="L26" s="5">
+        <v>834</v>
+      </c>
+      <c r="M26" s="20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>43923</v>
+      </c>
+      <c r="B27" s="14">
+        <v>43922</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="4">
+        <v>5376</v>
+      </c>
+      <c r="E27" s="4">
+        <v>584</v>
+      </c>
+      <c r="F27" s="4">
+        <v>23</v>
+      </c>
+      <c r="G27" s="11">
+        <f t="shared" si="0"/>
+        <v>607</v>
+      </c>
+      <c r="H27" s="4">
+        <v>363</v>
+      </c>
+      <c r="I27" s="4">
+        <v>17</v>
+      </c>
+      <c r="J27" s="5">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1144</v>
+      </c>
+      <c r="L27" s="4">
+        <v>906</v>
+      </c>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>43924</v>
+      </c>
+      <c r="B28" s="14">
+        <v>43923</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>43925</v>
+      </c>
+      <c r="B29" s="14">
+        <v>43924</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>43926</v>
+      </c>
+      <c r="B30" s="14">
+        <v>43925</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>43927</v>
+      </c>
+      <c r="B31" s="14">
+        <v>43926</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>43928</v>
+      </c>
+      <c r="B32" s="14">
+        <v>43927</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>43929</v>
+      </c>
+      <c r="B33" s="14">
+        <v>43928</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>43930</v>
+      </c>
+      <c r="B34" s="14">
+        <v>43929</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>43931</v>
+      </c>
+      <c r="B35" s="14">
+        <v>43930</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="M5:M25">
+  <conditionalFormatting sqref="M5:M26">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>

--- a/main/resources/data/COVID-19-BE-v2.xlsx
+++ b/main/resources/data/COVID-19-BE-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/nCov2019/Growth Rate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FDBB97-62EF-814B-A4DB-CAA988B61056}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EEF73A-0346-F245-8D4E-03F2061CC9DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9680" yWindow="1100" windowWidth="19480" windowHeight="14580" xr2:uid="{A5558AF9-9646-AB4F-B38D-391622C8AEE9}"/>
+    <workbookView xWindow="4840" yWindow="460" windowWidth="19480" windowHeight="14580" xr2:uid="{A5558AF9-9646-AB4F-B38D-391622C8AEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -509,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B772EA-25CE-8143-8366-3BB5B0A9FB44}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +570,7 @@
         <v>43897</v>
       </c>
       <c r="C2" s="16">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="4"/>
@@ -614,7 +614,7 @@
         <v>43899</v>
       </c>
       <c r="C4" s="16">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="4"/>
@@ -636,7 +636,7 @@
         <v>43900</v>
       </c>
       <c r="C5" s="16">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D5" s="11">
         <v>7</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" ref="G6:G27" si="0">SUM(E6:F6)</f>
+        <f t="shared" ref="G6:G28" si="0">SUM(E6:F6)</f>
         <v>7</v>
       </c>
       <c r="H6" s="11">
@@ -702,7 +702,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="5">
-        <f t="shared" ref="J6:J27" si="1">SUM(H6:I6)</f>
+        <f t="shared" ref="J6:J24" si="1">SUM(H6:I6)</f>
         <v>23</v>
       </c>
       <c r="K6" s="1">
@@ -724,7 +724,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="16">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="D7" s="12">
         <v>63</v>
@@ -768,7 +768,7 @@
         <v>43903</v>
       </c>
       <c r="C8" s="16">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D8" s="12">
         <v>112</v>
@@ -812,7 +812,7 @@
         <v>43904</v>
       </c>
       <c r="C9" s="16">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D9" s="11">
         <v>179</v>
@@ -900,7 +900,7 @@
         <v>43906</v>
       </c>
       <c r="C11" s="16">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D11" s="11">
         <v>368</v>
@@ -944,7 +944,7 @@
         <v>43907</v>
       </c>
       <c r="C12" s="16">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D12" s="11">
         <v>496</v>
@@ -988,7 +988,7 @@
         <v>43908</v>
       </c>
       <c r="C13" s="16">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="D13" s="11">
         <v>648</v>
@@ -1032,7 +1032,7 @@
         <v>43909</v>
       </c>
       <c r="C14" s="16">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="D14" s="11">
         <v>841</v>
@@ -1076,7 +1076,7 @@
         <v>43910</v>
       </c>
       <c r="C15" s="16">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="D15" s="11">
         <v>1096</v>
@@ -1120,7 +1120,7 @@
         <v>43911</v>
       </c>
       <c r="C16" s="16">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D16" s="11">
         <v>1380</v>
@@ -1208,7 +1208,7 @@
         <v>43913</v>
       </c>
       <c r="C18" s="16">
-        <v>1302</v>
+        <v>1315</v>
       </c>
       <c r="D18" s="11">
         <v>1881</v>
@@ -1252,7 +1252,7 @@
         <v>43914</v>
       </c>
       <c r="C19" s="16">
-        <v>1160</v>
+        <v>1153</v>
       </c>
       <c r="D19" s="11">
         <v>2152</v>
@@ -1296,7 +1296,7 @@
         <v>43915</v>
       </c>
       <c r="C20" s="17">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D20" s="13">
         <v>2675</v>
@@ -1340,7 +1340,7 @@
         <v>43916</v>
       </c>
       <c r="C21" s="18">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="D21" s="13">
         <v>3042</v>
@@ -1384,7 +1384,7 @@
         <v>43917</v>
       </c>
       <c r="C22" s="19">
-        <v>1425</v>
+        <v>1473</v>
       </c>
       <c r="D22" s="11">
         <v>3717</v>
@@ -1427,7 +1427,7 @@
         <v>43918</v>
       </c>
       <c r="C23" s="16">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="D23" s="5">
         <v>4138</v>
@@ -1470,7 +1470,7 @@
         <v>43919</v>
       </c>
       <c r="C24" s="16">
-        <v>628</v>
+        <v>657</v>
       </c>
       <c r="D24" s="5">
         <v>4569</v>
@@ -1513,7 +1513,7 @@
         <v>43920</v>
       </c>
       <c r="C25" s="16">
-        <v>715</v>
+        <v>1468</v>
       </c>
       <c r="D25" s="5">
         <v>4920</v>
@@ -1535,7 +1535,7 @@
         <v>14</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(H25:I25)</f>
         <v>182</v>
       </c>
       <c r="K25" s="5">
@@ -1555,7 +1555,9 @@
       <c r="B26" s="14">
         <v>43921</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="16">
+        <v>626</v>
+      </c>
       <c r="D26" s="5">
         <v>4995</v>
       </c>
@@ -1576,7 +1578,7 @@
         <v>29</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(H26:I26)</f>
         <v>465</v>
       </c>
       <c r="K26" s="5">
@@ -1617,7 +1619,7 @@
         <v>17</v>
       </c>
       <c r="J27" s="5">
-        <f t="shared" si="1"/>
+        <f>SUM(H27:I27)</f>
         <v>380</v>
       </c>
       <c r="K27" s="4">
@@ -1636,15 +1638,35 @@
         <v>43923</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="D28" s="4">
+        <v>5552</v>
+      </c>
+      <c r="E28" s="4">
+        <v>578</v>
+      </c>
+      <c r="F28" s="4">
+        <v>14</v>
+      </c>
+      <c r="G28" s="11">
+        <f t="shared" si="0"/>
+        <v>592</v>
+      </c>
+      <c r="H28" s="4">
+        <v>377</v>
+      </c>
+      <c r="I28" s="4">
+        <v>18</v>
+      </c>
+      <c r="J28" s="5">
+        <f>SUM(H28:I28)</f>
+        <v>395</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1205</v>
+      </c>
+      <c r="L28" s="4">
+        <v>916</v>
+      </c>
       <c r="M28" s="4"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">

--- a/main/resources/data/COVID-19-BE-v2.xlsx
+++ b/main/resources/data/COVID-19-BE-v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/nCov2019/Growth Rate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24EEF73A-0346-F245-8D4E-03F2061CC9DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03629768-4AD9-474D-8C7A-1E58FD7FF8BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4840" yWindow="460" windowWidth="19480" windowHeight="14580" xr2:uid="{A5558AF9-9646-AB4F-B38D-391622C8AEE9}"/>
+    <workbookView xWindow="10260" yWindow="460" windowWidth="19480" windowHeight="14580" xr2:uid="{A5558AF9-9646-AB4F-B38D-391622C8AEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -154,11 +154,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -182,6 +212,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B772EA-25CE-8143-8366-3BB5B0A9FB44}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -692,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="11">
-        <f t="shared" ref="G6:G28" si="0">SUM(E6:F6)</f>
+        <f t="shared" ref="G6:G30" si="0">SUM(E6:F6)</f>
         <v>7</v>
       </c>
       <c r="H6" s="11">
@@ -724,7 +756,7 @@
         <v>43902</v>
       </c>
       <c r="C7" s="16">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D7" s="12">
         <v>63</v>
@@ -768,7 +800,7 @@
         <v>43903</v>
       </c>
       <c r="C8" s="16">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D8" s="12">
         <v>112</v>
@@ -804,7 +836,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14">
         <v>43905</v>
       </c>
@@ -812,7 +844,7 @@
         <v>43904</v>
       </c>
       <c r="C9" s="16">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D9" s="11">
         <v>179</v>
@@ -871,10 +903,10 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="21">
         <v>18</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="21">
         <v>0</v>
       </c>
       <c r="J10" s="5">
@@ -915,10 +947,10 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="1">
         <v>14</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="1">
         <v>1</v>
       </c>
       <c r="J11" s="5">
@@ -932,7 +964,7 @@
         <v>51</v>
       </c>
       <c r="M11" s="20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N11" s="3"/>
     </row>
@@ -944,7 +976,7 @@
         <v>43907</v>
       </c>
       <c r="C12" s="16">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D12" s="11">
         <v>496</v>
@@ -959,10 +991,10 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="1">
         <v>31</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="1">
         <v>4</v>
       </c>
       <c r="J12" s="5">
@@ -1003,10 +1035,10 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="1">
         <v>48</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="1">
         <v>4</v>
       </c>
       <c r="J13" s="5">
@@ -1020,7 +1052,7 @@
         <v>88</v>
       </c>
       <c r="M13" s="20">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N13" s="3"/>
     </row>
@@ -1032,7 +1064,7 @@
         <v>43909</v>
       </c>
       <c r="C14" s="16">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="D14" s="11">
         <v>841</v>
@@ -1047,10 +1079,10 @@
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="1">
         <v>49</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="5">
@@ -1076,7 +1108,7 @@
         <v>43910</v>
       </c>
       <c r="C15" s="16">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D15" s="11">
         <v>1096</v>
@@ -1091,10 +1123,10 @@
         <f t="shared" si="0"/>
         <v>302</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="1">
         <v>55</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="1">
         <v>4</v>
       </c>
       <c r="J15" s="5">
@@ -1108,7 +1140,7 @@
         <v>168</v>
       </c>
       <c r="M15" s="20">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N15" s="3"/>
     </row>
@@ -1120,7 +1152,7 @@
         <v>43911</v>
       </c>
       <c r="C16" s="16">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="D16" s="11">
         <v>1380</v>
@@ -1135,10 +1167,10 @@
         <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="1">
         <v>74</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="1">
         <v>2</v>
       </c>
       <c r="J16" s="5">
@@ -1152,7 +1184,7 @@
         <v>200</v>
       </c>
       <c r="M16" s="20">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N16" s="3"/>
     </row>
@@ -1164,7 +1196,7 @@
         <v>43912</v>
       </c>
       <c r="C17" s="16">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D17" s="11">
         <v>1643</v>
@@ -1179,10 +1211,10 @@
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="1">
         <v>61</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="1">
         <v>2</v>
       </c>
       <c r="J17" s="5">
@@ -1196,7 +1228,7 @@
         <v>239</v>
       </c>
       <c r="M17" s="20">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N17" s="3"/>
     </row>
@@ -1208,7 +1240,7 @@
         <v>43913</v>
       </c>
       <c r="C18" s="16">
-        <v>1315</v>
+        <v>1328</v>
       </c>
       <c r="D18" s="11">
         <v>1881</v>
@@ -1223,10 +1255,10 @@
         <f t="shared" si="0"/>
         <v>282</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="1">
         <v>82</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="1">
         <v>3</v>
       </c>
       <c r="J18" s="5">
@@ -1240,7 +1272,7 @@
         <v>286</v>
       </c>
       <c r="M18" s="20">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="N18" s="3"/>
     </row>
@@ -1252,7 +1284,7 @@
         <v>43914</v>
       </c>
       <c r="C19" s="16">
-        <v>1153</v>
+        <v>1192</v>
       </c>
       <c r="D19" s="11">
         <v>2152</v>
@@ -1267,10 +1299,10 @@
         <f t="shared" si="0"/>
         <v>452</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="1">
         <v>115</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="1">
         <v>9</v>
       </c>
       <c r="J19" s="5">
@@ -1296,7 +1328,7 @@
         <v>43915</v>
       </c>
       <c r="C20" s="17">
-        <v>1174</v>
+        <v>1194</v>
       </c>
       <c r="D20" s="13">
         <v>2675</v>
@@ -1311,10 +1343,10 @@
         <f t="shared" si="0"/>
         <v>551</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="1">
         <v>128</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="1">
         <v>11</v>
       </c>
       <c r="J20" s="5">
@@ -1328,7 +1360,7 @@
         <v>422</v>
       </c>
       <c r="M20" s="20">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N20" s="7"/>
     </row>
@@ -1340,7 +1372,7 @@
         <v>43916</v>
       </c>
       <c r="C21" s="18">
-        <v>1325</v>
+        <v>1356</v>
       </c>
       <c r="D21" s="13">
         <v>3042</v>
@@ -1355,10 +1387,10 @@
         <f t="shared" si="0"/>
         <v>501</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="1">
         <v>183</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="1">
         <v>11</v>
       </c>
       <c r="J21" s="5">
@@ -1384,7 +1416,7 @@
         <v>43917</v>
       </c>
       <c r="C22" s="19">
-        <v>1473</v>
+        <v>1519</v>
       </c>
       <c r="D22" s="11">
         <v>3717</v>
@@ -1399,10 +1431,10 @@
         <f t="shared" si="0"/>
         <v>589</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="1">
         <v>205</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="1">
         <v>15</v>
       </c>
       <c r="J22" s="5">
@@ -1427,7 +1459,7 @@
         <v>43918</v>
       </c>
       <c r="C23" s="16">
-        <v>812</v>
+        <v>841</v>
       </c>
       <c r="D23" s="5">
         <v>4138</v>
@@ -1442,10 +1474,10 @@
         <f t="shared" si="0"/>
         <v>644</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="1">
         <v>296</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="1">
         <v>16</v>
       </c>
       <c r="J23" s="5">
@@ -1470,7 +1502,7 @@
         <v>43919</v>
       </c>
       <c r="C24" s="16">
-        <v>657</v>
+        <v>679</v>
       </c>
       <c r="D24" s="5">
         <v>4569</v>
@@ -1485,10 +1517,10 @@
         <f t="shared" si="0"/>
         <v>554</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="1">
         <v>169</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="1">
         <v>14</v>
       </c>
       <c r="J24" s="5">
@@ -1513,25 +1545,25 @@
         <v>43920</v>
       </c>
       <c r="C25" s="16">
-        <v>1468</v>
+        <v>1644</v>
       </c>
       <c r="D25" s="5">
         <v>4920</v>
       </c>
       <c r="E25" s="5">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F25" s="5">
         <v>11</v>
       </c>
       <c r="G25" s="11">
         <f t="shared" si="0"/>
-        <v>496</v>
-      </c>
-      <c r="H25" s="5">
+        <v>489</v>
+      </c>
+      <c r="H25" s="1">
         <v>168</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="1">
         <v>14</v>
       </c>
       <c r="J25" s="5">
@@ -1545,7 +1577,7 @@
         <v>786</v>
       </c>
       <c r="M25" s="20">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
@@ -1556,25 +1588,25 @@
         <v>43921</v>
       </c>
       <c r="C26" s="16">
-        <v>626</v>
+        <v>1403</v>
       </c>
       <c r="D26" s="5">
         <v>4995</v>
       </c>
       <c r="E26" s="5">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="F26" s="5">
         <v>24</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="H26" s="5">
+        <v>577</v>
+      </c>
+      <c r="H26" s="1">
         <v>436</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="1">
         <v>29</v>
       </c>
       <c r="J26" s="5">
@@ -1588,7 +1620,7 @@
         <v>834</v>
       </c>
       <c r="M26" s="20">
-        <v>34</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
@@ -1598,7 +1630,9 @@
       <c r="B27" s="14">
         <v>43922</v>
       </c>
-      <c r="C27" s="5"/>
+      <c r="C27" s="5">
+        <v>1319</v>
+      </c>
       <c r="D27" s="4">
         <v>5376</v>
       </c>
@@ -1612,10 +1646,10 @@
         <f t="shared" si="0"/>
         <v>607</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="1">
         <v>363</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="1">
         <v>17</v>
       </c>
       <c r="J27" s="5">
@@ -1628,7 +1662,9 @@
       <c r="L27" s="4">
         <v>906</v>
       </c>
-      <c r="M27" s="4"/>
+      <c r="M27" s="4">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
@@ -1637,24 +1673,26 @@
       <c r="B28" s="14">
         <v>43923</v>
       </c>
-      <c r="C28" s="5"/>
+      <c r="C28" s="5">
+        <v>1064</v>
+      </c>
       <c r="D28" s="4">
         <v>5552</v>
       </c>
       <c r="E28" s="4">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F28" s="4">
         <v>14</v>
       </c>
       <c r="G28" s="11">
         <f t="shared" si="0"/>
-        <v>592</v>
-      </c>
-      <c r="H28" s="4">
+        <v>582</v>
+      </c>
+      <c r="H28" s="1">
         <v>377</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="1">
         <v>18</v>
       </c>
       <c r="J28" s="5">
@@ -1676,19 +1714,41 @@
       <c r="B29" s="14">
         <v>43924</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="C29" s="5">
+        <v>465</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5699</v>
+      </c>
+      <c r="E29" s="4">
+        <v>504</v>
+      </c>
+      <c r="F29" s="4">
+        <v>18</v>
+      </c>
+      <c r="G29" s="11">
+        <f t="shared" si="0"/>
+        <v>522</v>
+      </c>
+      <c r="H29" s="1">
+        <v>375</v>
+      </c>
+      <c r="I29" s="1">
+        <v>18</v>
+      </c>
+      <c r="J29" s="5">
+        <f t="shared" ref="J29:J30" si="2">SUM(H29:I29)</f>
+        <v>393</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1245</v>
+      </c>
+      <c r="L29" s="4">
+        <v>985</v>
+      </c>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>43926</v>
       </c>
@@ -1696,15 +1756,35 @@
         <v>43925</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
+      <c r="D30" s="4">
+        <v>5735</v>
+      </c>
+      <c r="E30" s="4">
+        <v>499</v>
+      </c>
+      <c r="F30" s="4">
+        <v>29</v>
+      </c>
+      <c r="G30" s="11">
+        <f t="shared" si="0"/>
+        <v>528</v>
+      </c>
+      <c r="H30" s="22">
+        <v>504</v>
+      </c>
+      <c r="I30" s="22">
+        <v>14</v>
+      </c>
+      <c r="J30" s="5">
+        <f t="shared" si="2"/>
+        <v>518</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1261</v>
+      </c>
+      <c r="L30" s="4">
+        <v>995</v>
+      </c>
       <c r="M30" s="4"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
